--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Mon" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Monday" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Tue" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Wed" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Thu" sheetId="4" state="visible" r:id="rId5"/>
@@ -168,13 +168,14 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1052631578947"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -829,13 +830,13 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
